--- a/biology/Microbiologie/Deinococcota/Deinococcota.xlsx
+++ b/biology/Microbiologie/Deinococcota/Deinococcota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deinococci
 Les Deinococcota (Deinococcobactéries ou anciennement Deinococcobacteria ou groupe Deinococcus-Thermus) sont un petit phylum de bactéries composée de coques très résistantes aux risques environnementaux. Elle comprend la classe des Deinococci, elle-même divisée en deux ordres.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit en 1989 sous le nom de groupe Deinococcus-Thermus par Weisburg et al. mais publié de manière non valide[2], ce taxon a été republié en 2021 pour se conformer aux règles de nomenclature de l'ICSP et rebaptisé Deinococcota en maintenant l'autorité d'invention à Weisburg mais avec la date de validation de 2021[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit en 1989 sous le nom de groupe Deinococcus-Thermus par Weisburg et al. mais publié de manière non valide, ce taxon a été republié en 2021 pour se conformer aux règles de nomenclature de l'ICSP et rebaptisé Deinococcota en maintenant l'autorité d'invention à Weisburg mais avec la date de validation de 2021.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de Deinococcota est la suivante : Dei.no.coc.co’ta N.L. masc. n. Deinococcus, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe pour définir un phylum; N.L. neut. pl. n. Deinococcota, le phylum des Deinococcus[1],[3].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de Deinococcota est la suivante : Dei.no.coc.co’ta N.L. masc. n. Deinococcus, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe pour définir un phylum; N.L. neut. pl. n. Deinococcota, le phylum des Deinococcus,.
 </t>
         </is>
       </c>
@@ -575,9 +594,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 novembre 2022)[4], le phylum Deinococcota ne compte qu'une seule classe :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 novembre 2022), le phylum Deinococcota ne compte qu'une seule classe :
 Deinococci Garrity et Holt 2002</t>
         </is>
       </c>
@@ -606,7 +627,9 @@
           <t>Les Deinococcales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">famille Deinococcaceae
 Deinobacter
@@ -642,7 +665,9 @@
           <t>Les Thermales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">famille Thermaceae
 Marinithermus
